--- a/data/Dalton_Species_coverage.xlsx
+++ b/data/Dalton_Species_coverage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10808"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinehayes/Google Drive/Projects/Reburns/Project materials/data/cover/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinehayes/Google Drive/Projects/Reburns/Chapters/Community /data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F316AC-D402-AB4A-AD66-F983956D9EE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3217FC1-B03B-FB4E-A9AF-94AA0D87CED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3740" yWindow="740" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="species" sheetId="4" r:id="rId1"/>
@@ -1659,8 +1659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E109"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="D103" sqref="D103"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2716,10 +2716,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:EE119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H106" sqref="H106"/>
+      <selection pane="bottomLeft" activeCell="Y1" sqref="Y1:EE1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
